--- a/data/long_razon/P24_7-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_7-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>57,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 363,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 115,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 58,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 124,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 110,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 92,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 152,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 79,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 34,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 66,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 57,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 55,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 53,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 137,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 55,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 26,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 40,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 49,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 93,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 64,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 21,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 41,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 41,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 41,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_7-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_7-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_7-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_7-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.4310768359280039</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.326992966686202</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4680414696091303</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>-0.08537812380731163</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.4235323383191516</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>3.263849742804696</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>-0.1904720152975419</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3809761987014426</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>1.705933110679847</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.787739604090926</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2049422206984152</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2901922687116366</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.4785476026219601</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1045085314646379</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1.389000662574943</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.4694642088890156</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.002483647200011573</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.615931302647246</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.5288413953282992</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.246547105724719</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.058643589495571</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.5326841423698603</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.205581325696755</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>7.291243771764571</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>0.3357724880180261</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.9419948703837432</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>3.191931744794138</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.7337055563477498</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1083314788827459</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.734947527685179</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>-0.1760891869097102</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1372379037277732</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.7917525874670343</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>0.177345852381706</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1230668414506477</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.7619952554416931</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>0.03248309146519341</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2633657142903197</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1369327577219732</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.4545688619892116</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1751133781245388</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.3066709626014732</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>-0.1287531829229065</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.154185208611523</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.3215021417155017</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>2.030863379677554</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7758778910453636</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.646736435348751</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>0.2054838847659252</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.5996543934383782</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.575973342467077</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.7002701173716009</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.4524509097445958</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.321483585359032</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1245929776486912</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5721879319884078</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4376828225121936</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.120645537340487</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.12353300168957</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.499003433723361</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.01731198807962456</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1477780124034849</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.8824368535448737</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5260068918376621</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.01919206993637517</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.05239356702146143</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.2605781643827288</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3690243429879487</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.7206224629006923</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.2763722679350154</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.1075185785066835</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.3775766891471111</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.4834202801059966</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.516704504237028</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.285974200343011</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.6644319743260458</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.3053412630140334</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.647239089388633</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.4066848593772406</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.5091813700467025</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.55664423719295</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.2256512265356851</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2783017235427307</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5783705914027211</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>-0.06364594329753756</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.1192269680346119</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1.486378490436553</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>0.04663986983110808</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.19063293295913</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.9877346434328715</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1320626216140001</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.04473200779557766</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1658044193757027</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>-0.2686302681012446</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.08677170978142699</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.9594529236086634</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>-0.1636135274398282</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.0100723677962936</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.6716621780338737</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.800974253042726</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6783669956000977</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.044399596237957</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.2060490058222648</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.3674460400108308</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.148553200985738</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.2820387957573272</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4086521506019145</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.363031533318966</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
